--- a/hard/v0-CPU/CPU - PLsi_v0_estimated_cost.xlsx
+++ b/hard/v0-CPU/CPU - PLsi_v0_estimated_cost.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
-    <t xml:space="preserve">All Items purchased on AliExpress and shipped to Texas, US</t>
+    <t xml:space="preserve">All Items purchased on AliExpress includes shipping to Texas, US</t>
   </si>
   <si>
     <t xml:space="preserve">Detail</t>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Use by</t>
   </si>
   <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
@@ -58,10 +61,16 @@
     <t xml:space="preserve">Max in v0</t>
   </si>
   <si>
-    <t xml:space="preserve">Display 2.8 (240x320) + pen</t>
+    <t xml:space="preserve">TFT Touchscreen Display 2.8 (240x320) + pen</t>
   </si>
   <si>
     <t xml:space="preserve">HMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32888213613.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">digital inputs</t>
@@ -70,10 +79,31 @@
     <t xml:space="preserve">Max 8</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP32 Wroom</t>
+    <t xml:space="preserve">ESP32 Wroom (38 pins)</t>
   </si>
   <si>
     <t xml:space="preserve">CPU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">digital outputs</t>
@@ -88,6 +118,9 @@
     <t xml:space="preserve">HMI and CPU</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32861400498.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
     <t xml:space="preserve">analog inputs</t>
   </si>
   <si>
@@ -95,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Male 40pin header connector 2.54mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32864438850.html?spm=a2g0s.9042311.0.0.27424c4dtHH5qT</t>
   </si>
   <si>
     <t xml:space="preserve">analog outputs</t>
@@ -106,6 +142,9 @@
     <t xml:space="preserve">Power supply</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32812085542.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Outs</t>
   </si>
   <si>
@@ -115,10 +154,19 @@
     <t xml:space="preserve">digital inputs / outputs</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32749396579.html?spm=a2g0s.9042311.0.0.27424c4dNpntna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relays 5V</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32909532466.html?spm=a2g0s.9042311.0.0.27424c4demAhCt</t>
+  </si>
+  <si>
     <t xml:space="preserve">ULN2003 (7x relay driver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32769537810.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
   </si>
   <si>
     <t xml:space="preserve">R 330 ohm</t>
@@ -127,16 +175,28 @@
     <t xml:space="preserve">digital output</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optocoupler 4 pins</t>
   </si>
   <si>
-    <t xml:space="preserve">Zener 5,1V</t>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32835155712.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zener 5,1V 0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32865106042.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
   </si>
   <si>
     <t xml:space="preserve">R 510 ohm</t>
   </si>
   <si>
-    <t xml:space="preserve">R 1K 1/2W</t>
+    <t xml:space="preserve">R 1K 1W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32914704172.html?spm=a2g0s.9042311.0.0.27424c4dihQVHs</t>
   </si>
   <si>
     <t xml:space="preserve">R 10K</t>
@@ -148,13 +208,19 @@
     <t xml:space="preserve">analog output</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 Voltage amp 510</t>
+    <t xml:space="preserve">Mouser</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 Voltage amp 1000</t>
+    <t xml:space="preserve">R1 Voltage amp 3k3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 Voltage amp 5k1</t>
   </si>
   <si>
     <t xml:space="preserve">1N4148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/2025724181.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
   </si>
   <si>
     <t xml:space="preserve">Terminal blocks 10 poles 5.08mm</t>
@@ -163,16 +229,22 @@
     <t xml:space="preserve">I/O</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32620069944.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Board 100mm x 150mm</t>
   </si>
   <si>
     <t xml:space="preserve">Main board</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jlcpcb.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Price</t>
   </si>
   <si>
-    <t xml:space="preserve">*1 This price is from Mouser.com this price can be lowered by purchasing in AliExpress</t>
+    <t xml:space="preserve">*1 This price is from Mouser.com, it can be lowered by purchasing in AliExpress</t>
   </si>
   <si>
     <t xml:space="preserve">Total Price Digital version</t>
@@ -192,7 +264,7 @@
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,6 +298,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -317,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +441,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,8 +469,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -396,6 +483,10 @@
     </xf>
     <xf numFmtId="168" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -479,21 +570,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,7 +638,7 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -557,10 +647,13 @@
       <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>10</v>
@@ -583,21 +676,27 @@
         <v>5.763</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>10</v>
@@ -620,21 +719,27 @@
         <v>4.023</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>30</v>
@@ -653,26 +758,32 @@
       <c r="F7" s="9" t="n">
         <v>1.7</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="15" t="n">
         <f aca="false">E7*F7</f>
         <v>0.194366666666667</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>10</v>
@@ -696,21 +807,27 @@
         <v>0.0115</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>10</v>
@@ -734,22 +851,28 @@
         <v>0.153</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="16" t="n">
-        <f aca="false">K5+K7</f>
+        <v>33</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <f aca="false">L5+L7</f>
         <v>8</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>1</v>
@@ -766,7 +889,7 @@
         <v>0.00532</v>
       </c>
       <c r="F10" s="9" t="n">
-        <f aca="false">K5+K6</f>
+        <f aca="false">L5+L6</f>
         <v>10</v>
       </c>
       <c r="G10" s="9" t="n">
@@ -774,22 +897,28 @@
         <v>0.0532</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="16" t="n">
-        <f aca="false">K6+K8</f>
+        <v>37</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <f aca="false">L6+L8</f>
         <v>6</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>50</v>
@@ -806,7 +935,7 @@
         <v>0.2734</v>
       </c>
       <c r="F11" s="9" t="n">
-        <f aca="false">K6</f>
+        <f aca="false">L6</f>
         <v>4</v>
       </c>
       <c r="G11" s="9" t="n">
@@ -814,12 +943,18 @@
         <v>1.0936</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>10</v>
@@ -843,12 +978,18 @@
         <v>0.089</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>1</v>
@@ -865,7 +1006,7 @@
         <v>0.0096</v>
       </c>
       <c r="F13" s="9" t="n">
-        <f aca="false">K6</f>
+        <f aca="false">L6</f>
         <v>4</v>
       </c>
       <c r="G13" s="9" t="n">
@@ -873,12 +1014,18 @@
         <v>0.0384</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>50</v>
@@ -895,7 +1042,7 @@
         <v>0.0274</v>
       </c>
       <c r="F14" s="9" t="n">
-        <f aca="false">K5</f>
+        <f aca="false">L5</f>
         <v>6</v>
       </c>
       <c r="G14" s="9" t="n">
@@ -903,12 +1050,18 @@
         <v>0.1644</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>100</v>
@@ -925,7 +1078,7 @@
         <v>0.013</v>
       </c>
       <c r="F15" s="9" t="n">
-        <f aca="false">K5</f>
+        <f aca="false">L5</f>
         <v>6</v>
       </c>
       <c r="G15" s="9" t="n">
@@ -933,12 +1086,18 @@
         <v>0.078</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>1</v>
@@ -955,7 +1114,7 @@
         <v>0.0096</v>
       </c>
       <c r="F16" s="9" t="n">
-        <f aca="false">K5</f>
+        <f aca="false">L5</f>
         <v>6</v>
       </c>
       <c r="G16" s="9" t="n">
@@ -963,12 +1122,18 @@
         <v>0.0576</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>1</v>
@@ -985,7 +1150,7 @@
         <v>0.0176</v>
       </c>
       <c r="F17" s="9" t="n">
-        <f aca="false">K5</f>
+        <f aca="false">L5</f>
         <v>6</v>
       </c>
       <c r="G17" s="9" t="n">
@@ -993,12 +1158,18 @@
         <v>0.1056</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>1</v>
@@ -1015,7 +1186,7 @@
         <v>0.0096</v>
       </c>
       <c r="F18" s="9" t="n">
-        <f aca="false">K5+K7*3+K8</f>
+        <f aca="false">L5+L7*3+L8</f>
         <v>14</v>
       </c>
       <c r="G18" s="9" t="n">
@@ -1023,12 +1194,18 @@
         <v>0.1344</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>10</v>
@@ -1045,7 +1222,7 @@
         <v>3.344</v>
       </c>
       <c r="F19" s="9" t="n">
-        <f aca="false">$K$8/2</f>
+        <f aca="false">$L$8/2</f>
         <v>1</v>
       </c>
       <c r="G19" s="9" t="n">
@@ -1053,12 +1230,18 @@
         <v>3.344</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>1</v>
@@ -1075,7 +1258,7 @@
         <v>0.0096</v>
       </c>
       <c r="F20" s="9" t="n">
-        <f aca="false">$K$8</f>
+        <f aca="false">$L$8</f>
         <v>2</v>
       </c>
       <c r="G20" s="9" t="n">
@@ -1083,12 +1266,18 @@
         <v>0.0192</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>1</v>
@@ -1105,7 +1294,7 @@
         <v>0.0096</v>
       </c>
       <c r="F21" s="9" t="n">
-        <f aca="false">$K$8</f>
+        <f aca="false">$L$8</f>
         <v>2</v>
       </c>
       <c r="G21" s="9" t="n">
@@ -1113,12 +1302,18 @@
         <v>0.0192</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>200</v>
@@ -1135,7 +1330,7 @@
         <v>0.0054</v>
       </c>
       <c r="F22" s="9" t="n">
-        <f aca="false">$K$7*2</f>
+        <f aca="false">$L$7*2</f>
         <v>4</v>
       </c>
       <c r="G22" s="9" t="n">
@@ -1143,12 +1338,18 @@
         <v>0.0216</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>20</v>
@@ -1172,12 +1373,18 @@
         <v>1.399</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>10</v>
@@ -1201,7 +1408,13 @@
         <v>2.512</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,13 +1422,14 @@
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="19" t="n">
+      <c r="F25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="21" t="n">
         <f aca="false">SUM(G5:G24)</f>
         <v>19.2740666666667</v>
       </c>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
@@ -1224,33 +1438,36 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19" t="n">
+      <c r="E27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21" t="n">
         <v>16.53</v>
       </c>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19" t="n">
+      <c r="E28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="21" t="n">
         <v>19.24</v>
       </c>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
@@ -1259,6 +1476,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
@@ -9012,14 +9230,33 @@
       <c r="F998" s="2"/>
       <c r="G998" s="2"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" display="https://www.aliexpress.com/item/32888213613.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I6" r:id="rId2" display="https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603"/>
+    <hyperlink ref="I7" r:id="rId3" display="https://www.aliexpress.com/item/32861400498.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I8" r:id="rId4" display="https://www.aliexpress.com/item/32864438850.html?spm=a2g0s.9042311.0.0.27424c4dtHH5qT"/>
+    <hyperlink ref="I9" r:id="rId5" display="https://www.aliexpress.com/item/32812085542.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I10" r:id="rId6" display="https://www.aliexpress.com/item/32749396579.html?spm=a2g0s.9042311.0.0.27424c4dNpntna"/>
+    <hyperlink ref="I11" r:id="rId7" display="https://www.aliexpress.com/item/32909532466.html?spm=a2g0s.9042311.0.0.27424c4demAhCt"/>
+    <hyperlink ref="I12" r:id="rId8" display="https://www.aliexpress.com/item/32769537810.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I13" r:id="rId9" display="https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I14" r:id="rId10" display="https://www.aliexpress.com/item/32835155712.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I15" r:id="rId11" display="https://www.aliexpress.com/item/32865106042.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I16" r:id="rId12" display="https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I17" r:id="rId13" display="https://www.aliexpress.com/item/32914704172.html?spm=a2g0s.9042311.0.0.27424c4dihQVHs"/>
+    <hyperlink ref="I18" r:id="rId14" display="https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I20" r:id="rId15" display="https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I21" r:id="rId16" display="https://www.aliexpress.com/item/32948115055.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I22" r:id="rId17" display="https://www.aliexpress.com/item/2025724181.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I23" r:id="rId18" display="https://www.aliexpress.com/item/32620069944.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
+    <hyperlink ref="I24" r:id="rId19" display="https://jlcpcb.com/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/hard/v0-CPU/CPU - PLsi_v0_estimated_cost.xlsx
+++ b/hard/v0-CPU/CPU - PLsi_v0_estimated_cost.xlsx
@@ -85,25 +85,7 @@
     <t xml:space="preserve">CPU</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
+    <t xml:space="preserve">https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
     <t xml:space="preserve">digital outputs</t>
@@ -573,16 +555,17 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.07"/>
   </cols>
   <sheetData>
@@ -688,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>18</v>
@@ -731,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>23</v>
@@ -775,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>28</v>
@@ -819,7 +802,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>28</v>
@@ -890,11 +873,11 @@
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">L5+L6</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10" s="9" t="n">
         <f aca="false">E10*F10</f>
-        <v>0.0532</v>
+        <v>0.07448</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>37</v>
@@ -936,11 +919,11 @@
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">L6</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="9" t="n">
         <f aca="false">E11*F11</f>
-        <v>1.0936</v>
+        <v>1.6404</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>22</v>
@@ -1007,11 +990,11 @@
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">L6</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9" t="n">
         <f aca="false">E13*F13</f>
-        <v>0.0384</v>
+        <v>0.0576</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>44</v>
@@ -1043,11 +1026,11 @@
       </c>
       <c r="F14" s="9" t="n">
         <f aca="false">L5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="9" t="n">
         <f aca="false">E14*F14</f>
-        <v>0.1644</v>
+        <v>0.2192</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>17</v>
@@ -1079,11 +1062,11 @@
       </c>
       <c r="F15" s="9" t="n">
         <f aca="false">L5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="9" t="n">
         <f aca="false">E15*F15</f>
-        <v>0.078</v>
+        <v>0.104</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>17</v>
@@ -1115,11 +1098,11 @@
       </c>
       <c r="F16" s="9" t="n">
         <f aca="false">L5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="9" t="n">
         <f aca="false">E16*F16</f>
-        <v>0.0576</v>
+        <v>0.0768</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>17</v>
@@ -1151,11 +1134,11 @@
       </c>
       <c r="F17" s="9" t="n">
         <f aca="false">L5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="9" t="n">
         <f aca="false">E17*F17</f>
-        <v>0.1056</v>
+        <v>0.1408</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>17</v>
@@ -1187,11 +1170,11 @@
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">L5+L7*3+L8</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G18" s="9" t="n">
         <f aca="false">E18*F18</f>
-        <v>0.1344</v>
+        <v>0.0768</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -1223,11 +1206,11 @@
       </c>
       <c r="F19" s="9" t="n">
         <f aca="false">$L$8/2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="9" t="n">
         <f aca="false">E19*F19</f>
-        <v>3.344</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>55</v>
@@ -1259,11 +1242,11 @@
       </c>
       <c r="F20" s="9" t="n">
         <f aca="false">$L$8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="9" t="n">
         <f aca="false">E20*F20</f>
-        <v>0.0192</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>55</v>
@@ -1295,11 +1278,11 @@
       </c>
       <c r="F21" s="9" t="n">
         <f aca="false">$L$8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="9" t="n">
         <f aca="false">E21*F21</f>
-        <v>0.0192</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>55</v>
@@ -1331,11 +1314,11 @@
       </c>
       <c r="F22" s="9" t="n">
         <f aca="false">$L$7*2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9" t="n">
         <f aca="false">E22*F22</f>
-        <v>0.0216</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>27</v>
@@ -1427,7 +1410,7 @@
       </c>
       <c r="G25" s="21" t="n">
         <f aca="false">SUM(G5:G24)</f>
-        <v>19.2740666666667</v>
+        <v>16.5349466666667</v>
       </c>
       <c r="I25" s="22"/>
     </row>
@@ -9238,7 +9221,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" display="https://www.aliexpress.com/item/32888213613.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
-    <hyperlink ref="I6" r:id="rId2" display="https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603"/>
+    <hyperlink ref="I6" r:id="rId2" display="https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.599c6fcaL6u7Ra&amp;algo_pvid=dcdac20a-031c-4cab-8970-70d47ca621fa&amp;algo_expid=dcdac20a-031c-4cab-8970-70d47ca621fa-1&amp;btsid=0bb0624316142121230811756e3b3c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_"/>
     <hyperlink ref="I7" r:id="rId3" display="https://www.aliexpress.com/item/32861400498.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
     <hyperlink ref="I8" r:id="rId4" display="https://www.aliexpress.com/item/32864438850.html?spm=a2g0s.9042311.0.0.27424c4dtHH5qT"/>
     <hyperlink ref="I9" r:id="rId5" display="https://www.aliexpress.com/item/32812085542.html?spm=a2g0s.9042311.0.0.27424c4d0qZ0bo"/>
